--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -684,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -702,6 +702,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
-      <selection activeCell="O16" sqref="O1:Z1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,8 +1071,8 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6">
-        <v>31525200</v>
+      <c r="F2" s="7">
+        <v>25934</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1098,8 +1101,8 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
-        <v>-69044400</v>
+      <c r="F3" s="7">
+        <v>24770</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>50</v>
@@ -1136,8 +1139,8 @@
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6">
-        <v>-715402800</v>
+      <c r="F4" s="7">
+        <v>17289</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>56</v>
@@ -1168,8 +1171,8 @@
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6">
-        <v>-306990000</v>
+      <c r="F5" s="7">
+        <v>22016</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>60</v>
@@ -1212,8 +1215,8 @@
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6">
-        <v>-413607600</v>
+      <c r="F6" s="7">
+        <v>20782</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>69</v>
@@ -1252,8 +1255,8 @@
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6">
-        <v>-234414000</v>
+      <c r="F7" s="7">
+        <v>22856</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>76</v>
@@ -1286,8 +1289,8 @@
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6">
-        <v>-503290800</v>
+      <c r="F8" s="7">
+        <v>19744</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>81</v>
@@ -1320,8 +1323,8 @@
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6">
-        <v>695941200</v>
+      <c r="F9" s="7">
+        <v>33624</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>85</v>
@@ -1358,8 +1361,8 @@
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6">
-        <v>-225946800</v>
+      <c r="F10" s="7">
+        <v>22954</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>90</v>
@@ -1390,8 +1393,8 @@
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6">
-        <v>-467866800</v>
+      <c r="F11" s="7">
+        <v>20154</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>93</v>
@@ -1428,8 +1431,8 @@
       <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6">
-        <v>-364100400</v>
+      <c r="F12" s="7">
+        <v>21355</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>99</v>
@@ -1462,8 +1465,8 @@
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6">
-        <v>-105073200</v>
+      <c r="F13" s="7">
+        <v>24353</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>103</v>
@@ -1502,8 +1505,8 @@
       <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6">
-        <v>-110862000</v>
+      <c r="F14" s="7">
+        <v>24286</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>110</v>
@@ -1542,8 +1545,8 @@
       <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="6">
-        <v>-208062000</v>
+      <c r="F15" s="7">
+        <v>23161</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>116</v>
@@ -1582,8 +1585,8 @@
       <c r="E16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="6">
-        <v>657579600</v>
+      <c r="F16" s="7">
+        <v>33180</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>122</v>
@@ -1614,8 +1617,8 @@
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="6">
-        <v>-304657200</v>
+      <c r="F17" s="7">
+        <v>22043</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>125</v>
@@ -1654,8 +1657,8 @@
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="6">
-        <v>-291697200</v>
+      <c r="F18" s="7">
+        <v>22193</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>132</v>
@@ -1694,8 +1697,8 @@
       <c r="E19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="6">
-        <v>-54010800</v>
+      <c r="F19" s="7">
+        <v>24944</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>137</v>
@@ -1734,8 +1737,8 @@
       <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="6">
-        <v>-255236400</v>
+      <c r="F20" s="7">
+        <v>22615</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>142</v>
@@ -1774,8 +1777,8 @@
       <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="6">
-        <v>-27831600</v>
+      <c r="F21" s="7">
+        <v>25247</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>145</v>
@@ -1814,8 +1817,8 @@
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="6">
-        <v>39301200</v>
+      <c r="F22" s="7">
+        <v>26024</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>152</v>
@@ -1856,8 +1859,8 @@
       <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6">
-        <v>-486529200</v>
+      <c r="F23" s="7">
+        <v>19938</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
@@ -1890,8 +1893,8 @@
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6">
-        <v>-276663600</v>
+      <c r="F24" s="7">
+        <v>22367</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>162</v>
@@ -1932,8 +1935,8 @@
       <c r="E25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="6">
-        <v>-392612400</v>
+      <c r="F25" s="7">
+        <v>21025</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>170</v>
@@ -1964,8 +1967,8 @@
       <c r="E26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
-        <v>617054400</v>
+      <c r="F26" s="7">
+        <v>32711</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>172</v>
@@ -2008,8 +2011,8 @@
       <c r="E27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="6">
-        <v>453844800</v>
+      <c r="F27" s="7">
+        <v>30822</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>180</v>
@@ -2048,8 +2051,8 @@
       <c r="E28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="6">
-        <v>-240807600</v>
+      <c r="F28" s="7">
+        <v>22782</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>185</v>
@@ -2080,8 +2083,8 @@
       <c r="E29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="6">
-        <v>467240400</v>
+      <c r="F29" s="7">
+        <v>30977</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>189</v>
@@ -2120,8 +2123,8 @@
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="6">
-        <v>-358570800</v>
+      <c r="F30" s="7">
+        <v>21419</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>195</v>
@@ -2154,8 +2157,8 @@
       <c r="E31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="6">
-        <v>-904014000</v>
+      <c r="F31" s="7">
+        <v>15106</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="206">
   <si>
     <t>#</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Татьяна</t>
   </si>
   <si>
-    <t>Сергеевна</t>
-  </si>
-  <si>
     <t>Михайлович</t>
   </si>
   <si>
@@ -140,18 +137,12 @@
     <t>Игорь</t>
   </si>
   <si>
-    <t>Маргарита</t>
-  </si>
-  <si>
     <t>Васильевна</t>
   </si>
   <si>
     <t>Александрович</t>
   </si>
   <si>
-    <t>Марина</t>
-  </si>
-  <si>
     <t>Логин</t>
   </si>
   <si>
@@ -191,18 +182,6 @@
     <t>Заместитель главного бухгалтера</t>
   </si>
   <si>
-    <t>Грузева</t>
-  </si>
-  <si>
-    <t>Нина</t>
-  </si>
-  <si>
-    <t>+7 (967) 136-17-00</t>
-  </si>
-  <si>
-    <t>уборщик служебных помещений</t>
-  </si>
-  <si>
     <t>Дзюбенко</t>
   </si>
   <si>
@@ -266,18 +245,6 @@
     <t>настройщик</t>
   </si>
   <si>
-    <t>Загладина</t>
-  </si>
-  <si>
-    <t>Леонидовна</t>
-  </si>
-  <si>
-    <t>+7 (917) 586-26-27</t>
-  </si>
-  <si>
-    <t>+7 (495) 751-98-23</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -296,12 +263,6 @@
     <t>Администратор тренажерного зала</t>
   </si>
   <si>
-    <t>Камчыбекова</t>
-  </si>
-  <si>
-    <t>+7 (919) 720-79-87</t>
-  </si>
-  <si>
     <t>Ковалева</t>
   </si>
   <si>
@@ -320,18 +281,6 @@
     <t>специалист по кадрам</t>
   </si>
   <si>
-    <t>Коптелова</t>
-  </si>
-  <si>
-    <t>Ильинична</t>
-  </si>
-  <si>
-    <t>+7 (916) 364-10-93</t>
-  </si>
-  <si>
-    <t>+7 (495) 754-65-80</t>
-  </si>
-  <si>
     <t>гардеробщица</t>
   </si>
   <si>
@@ -449,18 +398,6 @@
     <t>Администратор</t>
   </si>
   <si>
-    <t>Малинина</t>
-  </si>
-  <si>
-    <t>Валентина</t>
-  </si>
-  <si>
-    <t>+7 (925) 335-69-88</t>
-  </si>
-  <si>
-    <t>malinina-vi</t>
-  </si>
-  <si>
     <t>Малюгин</t>
   </si>
   <si>
@@ -533,15 +470,6 @@
     <t>начальник юридического отдела</t>
   </si>
   <si>
-    <t>Остяков</t>
-  </si>
-  <si>
-    <t>Георгиевич</t>
-  </si>
-  <si>
-    <t>+7 (915) 081-01-01</t>
-  </si>
-  <si>
     <t>Рыжкова</t>
   </si>
   <si>
@@ -557,9 +485,6 @@
     <t>koryagina-oo</t>
   </si>
   <si>
-    <t>shiptet</t>
-  </si>
-  <si>
     <t>nikson-89@mail.ru</t>
   </si>
   <si>
@@ -590,27 +515,6 @@
     <t>Лаборант</t>
   </si>
   <si>
-    <t>Фроловская</t>
-  </si>
-  <si>
-    <t>Игоревна</t>
-  </si>
-  <si>
-    <t>+7 (926) 321-84-38</t>
-  </si>
-  <si>
-    <t>frolovskaya-mi</t>
-  </si>
-  <si>
-    <t>vvvvv5</t>
-  </si>
-  <si>
-    <t>cvetlinda@rambler.ru</t>
-  </si>
-  <si>
-    <t>Документовод</t>
-  </si>
-  <si>
     <t>Чеботарева</t>
   </si>
   <si>
@@ -633,6 +537,114 @@
   </si>
   <si>
     <t>Столяр</t>
+  </si>
+  <si>
+    <t>alibaba</t>
+  </si>
+  <si>
+    <t>Изотов</t>
+  </si>
+  <si>
+    <t>Игнатий</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>+7 (915) 193-05-29</t>
+  </si>
+  <si>
+    <t>izotov-ia</t>
+  </si>
+  <si>
+    <t>fbwFC2w</t>
+  </si>
+  <si>
+    <t>igNAtijjj@gmail.com</t>
+  </si>
+  <si>
+    <t>Настрийщик</t>
+  </si>
+  <si>
+    <t>Литинская</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>+7 (906) 780-40-97</t>
+  </si>
+  <si>
+    <t>Панчук</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>+7 (906) 077-56-06</t>
+  </si>
+  <si>
+    <t>Пекалиева</t>
+  </si>
+  <si>
+    <t>+7 (916) 117-69-50</t>
+  </si>
+  <si>
+    <t>Прокопова</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Юрьевна</t>
+  </si>
+  <si>
+    <t>+7 (985) 436-56-38</t>
+  </si>
+  <si>
+    <t>+7 (495) 752-96-62</t>
+  </si>
+  <si>
+    <t>GjphnVN</t>
+  </si>
+  <si>
+    <t>Царева</t>
+  </si>
+  <si>
+    <t>Борисовна</t>
+  </si>
+  <si>
+    <t>+7 (906) 749-82-39</t>
+  </si>
+  <si>
+    <t>Шевчук</t>
+  </si>
+  <si>
+    <t>Григорьевна</t>
+  </si>
+  <si>
+    <t>+7 (905) 915-61-23</t>
+  </si>
+  <si>
+    <t>shevchuk-yg</t>
+  </si>
+  <si>
+    <t>i19ama96lider</t>
+  </si>
+  <si>
+    <t>shevchuk-yg@yandex.ru</t>
+  </si>
+  <si>
+    <t>Шкарин-Ханов</t>
+  </si>
+  <si>
+    <t>Ильгизович</t>
+  </si>
+  <si>
+    <t>+7 (903) 766-74-67</t>
   </si>
 </sst>
 </file>
@@ -987,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A2:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,162 +1023,132 @@
     <col min="14" max="14" width="81.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7">
-        <v>25934</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7">
-        <v>24770</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>25934</v>
+      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1350396152</v>
-      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7">
-        <v>17289</v>
+        <v>24770</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1350396152</v>
+      </c>
       <c r="N4" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
@@ -1175,42 +1157,42 @@
         <v>22016</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M5" s="6">
         <v>1333019187</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
@@ -1219,38 +1201,38 @@
         <v>20782</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M6" s="6">
         <v>1411563815</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
@@ -1259,10 +1241,10 @@
         <v>22856</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1270,699 +1252,683 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7">
-        <v>19744</v>
+        <v>33624</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1505811687</v>
+      </c>
       <c r="N8" s="6" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7">
-        <v>33624</v>
+      <c r="F9" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1505811687</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M9" s="6"/>
       <c r="N9" s="6" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="7">
-        <v>22954</v>
+        <v>20154</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1331895843</v>
+      </c>
       <c r="N10" s="6" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="7">
-        <v>20154</v>
+        <v>24353</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="L11" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M11" s="6">
-        <v>1331895843</v>
+        <v>1402923115</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7">
-        <v>21355</v>
+        <v>24286</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1333613892</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="7">
-        <v>24353</v>
+        <v>23161</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M13" s="6">
-        <v>1402923115</v>
+        <v>1411563815</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" s="7">
-        <v>24286</v>
+        <v>33180</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1333613892</v>
-      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7">
-        <v>23161</v>
+        <v>22043</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M15" s="6">
-        <v>1411563815</v>
+        <v>1329829644</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7">
+        <v>22193</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="7">
-        <v>33180</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="6">
+        <v>7525660</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1354259688</v>
+      </c>
       <c r="N16" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="7">
-        <v>22043</v>
+        <v>18669</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1329829644</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="7">
-        <v>22193</v>
+        <v>24944</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="6">
-        <v>7525660</v>
+        <v>121</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="M18" s="6">
-        <v>1354259688</v>
+        <v>1411563815</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F19" s="7">
-        <v>24944</v>
+        <v>25247</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="M19" s="6">
-        <v>1411563815</v>
+        <v>1615966213</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F20" s="7">
-        <v>22615</v>
+        <v>26024</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="J20" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="M20" s="6">
-        <v>1411563815</v>
+        <v>1441487885</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7">
-        <v>25247</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>19938</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1615966213</v>
-      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7">
-        <v>26024</v>
+        <v>22367</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M22" s="6">
-        <v>1441487885</v>
+        <v>1329824153</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="7">
-        <v>19938</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>159</v>
-      </c>
+        <v>21020</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="7">
-        <v>22367</v>
+        <v>23761</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>163</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1329824153</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7">
-        <v>21025</v>
+        <v>22519</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>12</v>
@@ -1971,42 +1937,42 @@
         <v>32711</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="M26" s="6">
         <v>1326360781</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>9</v>
@@ -2015,38 +1981,38 @@
         <v>30822</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K27" s="6">
         <v>7778000</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="M27" s="6">
         <v>1415886854</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>9</v>
@@ -2055,7 +2021,7 @@
         <v>22782</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2064,55 +2030,44 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="7">
-        <v>30977</v>
+        <v>24552</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M29" s="6">
-        <v>1446454795</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>15</v>
@@ -2127,10 +2082,10 @@
         <v>21419</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -2138,72 +2093,108 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7">
+        <v>35248</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1629102061</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="B32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>15106</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="7">
+        <v>33086</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
